--- a/账号合集.xlsx
+++ b/账号合集.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/royzhang/Documents/KJ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/royzhang/Documents/GitHub/025daizhang/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32520" windowHeight="20540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>qimingzhushou01@126.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +89,34 @@
   </si>
   <si>
     <t>qimingzhushou03@126.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里云账号</t>
+    <rPh sb="0" eb="1">
+      <t>a li yun</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhang hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里云ECS 账号</t>
+    <rPh sb="0" eb="1">
+      <t>a li yun</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zhang hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.97.168.115/root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bbpp1314</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -154,11 +182,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -439,7 +470,7 @@
   <dimension ref="B1:E19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -483,15 +514,27 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4">
+        <v>13952025649</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">

--- a/账号合集.xlsx
+++ b/账号合集.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32520" windowHeight="20540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32340" windowHeight="20540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="安装" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>qimingzhushou01@126.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +118,77 @@
   </si>
   <si>
     <t>Bbpp1314</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jdk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linux 环境安装</t>
+    <rPh sb="6" eb="7">
+      <t>huan jing</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>an zhuang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root/12Qwaszx!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里云数据库</t>
+    <rPh sb="0" eb="1">
+      <t>a li yun</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shu ju ku</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.linuxidc.com/Linux/2016-09/135288.htm</t>
+  </si>
+  <si>
+    <t>亲测可行</t>
+    <rPh sb="0" eb="1">
+      <t>qin</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ce</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ke xing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/u010487100/article/details/78287474</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里云安全组添加3306端口</t>
+    <rPh sb="0" eb="1">
+      <t>a li yun</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>an quan</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>tian jia</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>duan kou</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -124,7 +196,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -139,6 +211,11 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="3">
@@ -182,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -190,6 +267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -469,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -538,8 +616,12 @@
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
@@ -625,4 +707,52 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="61.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>